--- a/Rotina.xlsx
+++ b/Rotina.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cocam\Luiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8BF39B3D-8867-4CE0-9936-10672BCEBC36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5CAAA34-9228-4DAC-BAB0-810529E8B0DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8580" yWindow="6615" windowWidth="15660" windowHeight="9885" xr2:uid="{4A93173A-1C59-4371-87E8-96C9D1E26649}"/>
+    <workbookView xWindow="5025" yWindow="1800" windowWidth="19500" windowHeight="12975" xr2:uid="{4A93173A-1C59-4371-87E8-96C9D1E26649}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="41">
   <si>
     <t>05:00 - 06:00</t>
   </si>
@@ -118,6 +118,36 @@
   </si>
   <si>
     <t>04:00 - 05:00</t>
+  </si>
+  <si>
+    <t>Caminhada</t>
+  </si>
+  <si>
+    <t>Trajeto Casa - Cocam</t>
+  </si>
+  <si>
+    <t>Café da Manhã</t>
+  </si>
+  <si>
+    <t>Trabalhar</t>
+  </si>
+  <si>
+    <t>Almoço</t>
+  </si>
+  <si>
+    <t>Trajeto Cocam - Casa</t>
+  </si>
+  <si>
+    <t>Banho/Oração</t>
+  </si>
+  <si>
+    <t>Dormir</t>
+  </si>
+  <si>
+    <t>Corrida</t>
+  </si>
+  <si>
+    <t>Futebol</t>
   </si>
 </sst>
 </file>
@@ -187,7 +217,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -199,6 +229,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -522,8 +565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC4E8527-D7CC-45A2-A836-7C0FC83024A5}">
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.69921875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -556,201 +599,665 @@
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="B2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
+      <c r="B3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
+      <c r="B5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="B6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
+      <c r="B7" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="B8" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
-    </row>
-    <row r="18" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
-    </row>
-    <row r="20" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
-    </row>
-    <row r="22" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
-    </row>
-    <row r="24" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
-    </row>
-    <row r="26" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+    </row>
+    <row r="27" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3"/>
-    </row>
-    <row r="28" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+    </row>
+    <row r="28" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3"/>
-    </row>
-    <row r="30" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+    </row>
+    <row r="30" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+    </row>
+    <row r="31" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3"/>
-    </row>
-    <row r="32" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+    </row>
+    <row r="32" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+    </row>
+    <row r="33" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3"/>
-    </row>
-    <row r="34" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="7"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+    </row>
+    <row r="34" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+    </row>
+    <row r="35" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3"/>
-    </row>
-    <row r="36" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+    </row>
+    <row r="36" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+    </row>
+    <row r="37" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3"/>
-    </row>
-    <row r="38" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+    </row>
+    <row r="38" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+    </row>
+    <row r="39" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3"/>
-    </row>
-    <row r="40" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+    </row>
+    <row r="40" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+    </row>
+    <row r="41" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3"/>
-    </row>
-    <row r="42" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+    </row>
+    <row r="42" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+    </row>
+    <row r="43" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3"/>
-    </row>
-    <row r="44" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+    </row>
+    <row r="44" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+    </row>
+    <row r="45" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3"/>
-    </row>
-    <row r="46" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+    </row>
+    <row r="46" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+    </row>
+    <row r="47" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3"/>
-    </row>
-    <row r="48" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+    </row>
+    <row r="48" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>30</v>
       </c>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
     </row>
     <row r="49" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A46:A47"/>
+  <mergeCells count="50">
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B38:B48"/>
+    <mergeCell ref="C38:C48"/>
+    <mergeCell ref="D38:D48"/>
+    <mergeCell ref="E38:E48"/>
+    <mergeCell ref="F38:F48"/>
+    <mergeCell ref="B19:B27"/>
+    <mergeCell ref="C19:C27"/>
+    <mergeCell ref="D19:D27"/>
+    <mergeCell ref="E19:E27"/>
+    <mergeCell ref="F19:F27"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="B8:B15"/>
+    <mergeCell ref="C8:C15"/>
+    <mergeCell ref="D8:D15"/>
+    <mergeCell ref="E8:E15"/>
+    <mergeCell ref="F8:F15"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
     <mergeCell ref="A48:A49"/>
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="A28:A29"/>
@@ -758,18 +1265,11 @@
     <mergeCell ref="A32:A33"/>
     <mergeCell ref="A34:A35"/>
     <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A46:A47"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Rotina.xlsx
+++ b/Rotina.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cocam\Luiz\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dusan\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5CAAA34-9228-4DAC-BAB0-810529E8B0DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{121BFA05-87B7-436C-A162-E78FDEBFABD5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5025" yWindow="1800" windowWidth="19500" windowHeight="12975" xr2:uid="{4A93173A-1C59-4371-87E8-96C9D1E26649}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4A93173A-1C59-4371-87E8-96C9D1E26649}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="43">
   <si>
     <t>05:00 - 06:00</t>
   </si>
@@ -148,6 +148,12 @@
   </si>
   <si>
     <t>Futebol</t>
+  </si>
+  <si>
+    <t>Banho</t>
+  </si>
+  <si>
+    <t>Igreja</t>
   </si>
 </sst>
 </file>
@@ -177,7 +183,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -213,16 +219,53 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -231,18 +274,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -565,8 +607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC4E8527-D7CC-45A2-A836-7C0FC83024A5}">
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.69921875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -596,656 +638,666 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="7" t="s">
+      <c r="A3" s="8"/>
+      <c r="B3" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="5" t="s">
+      <c r="A5" s="8"/>
+      <c r="B5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="8" t="s">
+      <c r="A7" s="8"/>
+      <c r="B7" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
     </row>
     <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="3"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
     </row>
     <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
     </row>
     <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="3"/>
-      <c r="B19" s="9" t="s">
+      <c r="A19" s="8"/>
+      <c r="B19" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
     </row>
     <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
     </row>
     <row r="21" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="3"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
     </row>
     <row r="22" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
     </row>
     <row r="23" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="3"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
     </row>
     <row r="24" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
     </row>
     <row r="25" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="3"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
     </row>
     <row r="26" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
     </row>
     <row r="27" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="3"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
     </row>
     <row r="28" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="F28" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
     </row>
     <row r="29" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="3"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H29" s="4"/>
     </row>
     <row r="30" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F30" s="4"/>
+      <c r="G30" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H30" s="4"/>
     </row>
     <row r="31" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="3"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
+      <c r="A31" s="8"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="4"/>
     </row>
     <row r="32" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="13"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="4"/>
     </row>
     <row r="33" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="3"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
+      <c r="A33" s="8"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="4"/>
     </row>
     <row r="34" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
     </row>
     <row r="35" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="3"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
+      <c r="A35" s="8"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
     </row>
     <row r="36" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
     </row>
     <row r="37" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="3"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
+      <c r="A37" s="8"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
     </row>
     <row r="38" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E38" s="7" t="s">
+      <c r="E38" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="F38" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
     </row>
     <row r="39" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="3"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
+      <c r="A39" s="8"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
     </row>
     <row r="40" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
     </row>
     <row r="41" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="3"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
+      <c r="A41" s="8"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
     </row>
     <row r="42" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
     </row>
     <row r="43" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="3"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
+      <c r="A43" s="8"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
     </row>
     <row r="44" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
     </row>
     <row r="45" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="3"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
+      <c r="A45" s="8"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
     </row>
     <row r="46" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
     </row>
     <row r="47" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="3"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
+      <c r="A47" s="8"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
     </row>
     <row r="48" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-    </row>
-    <row r="49" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="3"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+    </row>
+    <row r="49" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="8"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="50">
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B38:B48"/>
-    <mergeCell ref="C38:C48"/>
-    <mergeCell ref="D38:D48"/>
-    <mergeCell ref="E38:E48"/>
-    <mergeCell ref="F38:F48"/>
-    <mergeCell ref="B19:B27"/>
-    <mergeCell ref="C19:C27"/>
-    <mergeCell ref="D19:D27"/>
-    <mergeCell ref="E19:E27"/>
-    <mergeCell ref="F19:F27"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="F16:F18"/>
-    <mergeCell ref="B8:B15"/>
-    <mergeCell ref="C8:C15"/>
-    <mergeCell ref="D8:D15"/>
-    <mergeCell ref="E8:E15"/>
-    <mergeCell ref="F8:F15"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
+  <mergeCells count="52">
+    <mergeCell ref="G30:G33"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A46:A47"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
@@ -1258,18 +1310,33 @@
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="B8:B15"/>
+    <mergeCell ref="C8:C15"/>
+    <mergeCell ref="D8:D15"/>
+    <mergeCell ref="E8:E15"/>
+    <mergeCell ref="F8:F15"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="B19:B27"/>
+    <mergeCell ref="C19:C27"/>
+    <mergeCell ref="D19:D27"/>
+    <mergeCell ref="E19:E27"/>
+    <mergeCell ref="F19:F27"/>
+    <mergeCell ref="D32:D35"/>
+    <mergeCell ref="B38:B49"/>
+    <mergeCell ref="C38:C49"/>
+    <mergeCell ref="D38:D49"/>
+    <mergeCell ref="E38:E49"/>
+    <mergeCell ref="F38:F49"/>
+    <mergeCell ref="E30:E33"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Rotina.xlsx
+++ b/Rotina.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dusan\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lsantafosta\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{121BFA05-87B7-436C-A162-E78FDEBFABD5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88324158-E3DF-4C7D-A64F-5D5B1A5559C4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4A93173A-1C59-4371-87E8-96C9D1E26649}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4A93173A-1C59-4371-87E8-96C9D1E26649}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="49">
   <si>
     <t>05:00 - 06:00</t>
   </si>
@@ -126,9 +126,6 @@
     <t>Trajeto Casa - Cocam</t>
   </si>
   <si>
-    <t>Café da Manhã</t>
-  </si>
-  <si>
     <t>Trabalhar</t>
   </si>
   <si>
@@ -154,6 +151,27 @@
   </si>
   <si>
     <t>Igreja</t>
+  </si>
+  <si>
+    <t>Café</t>
+  </si>
+  <si>
+    <t>Estudar Alura</t>
+  </si>
+  <si>
+    <t>Estudar Inglês</t>
+  </si>
+  <si>
+    <t>Estudar Desen. Pessoal</t>
+  </si>
+  <si>
+    <t>Ler Bíblia/Oração</t>
+  </si>
+  <si>
+    <t>Estudar Música</t>
+  </si>
+  <si>
+    <t>Livre</t>
   </si>
 </sst>
 </file>
@@ -169,7 +187,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -179,6 +197,60 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -247,7 +319,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -255,36 +327,107 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -605,15 +748,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC4E8527-D7CC-45A2-A836-7C0FC83024A5}">
-  <dimension ref="A1:H49"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+      <selection activeCell="G9" sqref="G9:G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.69921875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -636,157 +782,186 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4"/>
+      <c r="B3" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D3" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="F3" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4"/>
+      <c r="B5" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="13"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-    </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8"/>
-      <c r="B3" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-    </row>
-    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-    </row>
-    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8"/>
-      <c r="B5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+      <c r="H6" s="12"/>
+      <c r="I6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8"/>
-      <c r="B7" s="5" t="s">
+    </row>
+    <row r="7" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="15"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C8" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D8" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E8" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F8" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-    </row>
-    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+      <c r="G8" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-    </row>
-    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8"/>
+    </row>
+    <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-    </row>
-    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
+      <c r="G9" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="18"/>
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="7"/>
@@ -794,21 +969,27 @@
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-    </row>
-    <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="8"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-    </row>
-    <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
+      <c r="G11" s="35"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="7"/>
@@ -816,21 +997,25 @@
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-    </row>
-    <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="8"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-    </row>
-    <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
+      <c r="G13" s="35"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="7"/>
@@ -838,85 +1023,99 @@
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-    </row>
-    <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="8"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-    </row>
-    <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
+      <c r="G14" s="35"/>
+      <c r="H14" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="5"/>
+    </row>
+    <row r="16" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-    </row>
-    <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="8"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-    </row>
-    <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
+      <c r="B16" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="5"/>
+    </row>
+    <row r="18" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-    </row>
-    <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="8"/>
-      <c r="B19" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-    </row>
-    <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="8" t="s">
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4"/>
+      <c r="B19" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="5"/>
+    </row>
+    <row r="20" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B20" s="7"/>
@@ -924,21 +1123,25 @@
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-    </row>
-    <row r="21" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="8"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="4"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-    </row>
-    <row r="22" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="8" t="s">
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="5"/>
+    </row>
+    <row r="22" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B22" s="7"/>
@@ -946,21 +1149,25 @@
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-    </row>
-    <row r="23" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="8"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="4"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-    </row>
-    <row r="24" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="8" t="s">
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="5"/>
+    </row>
+    <row r="24" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B24" s="7"/>
@@ -968,21 +1175,25 @@
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-    </row>
-    <row r="25" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="8"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="4"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-    </row>
-    <row r="26" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="8" t="s">
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="5"/>
+    </row>
+    <row r="26" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B26" s="7"/>
@@ -990,301 +1201,472 @@
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-    </row>
-    <row r="27" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="8"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-    </row>
-    <row r="28" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="8" t="s">
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="4"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="5"/>
+    </row>
+    <row r="28" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-    </row>
-    <row r="29" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="8"/>
-      <c r="B29" s="3" t="s">
+      <c r="B28" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="F28" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="G28" s="36"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="4"/>
+      <c r="B29" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F29" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G29" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="H29" s="35"/>
+      <c r="I29" s="5"/>
+    </row>
+    <row r="30" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" s="22"/>
+      <c r="E30" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="F30" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="G30" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H29" s="4"/>
-    </row>
-    <row r="30" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="8" t="s">
+      <c r="H30" s="35"/>
+      <c r="I30" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="F30" s="4"/>
-      <c r="G30" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="H30" s="4"/>
-    </row>
-    <row r="31" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="8"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="4"/>
-    </row>
-    <row r="32" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="8" t="s">
+    </row>
+    <row r="31" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="4"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="5"/>
+    </row>
+    <row r="32" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B32" s="13"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="10" t="s">
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E32" s="29"/>
+      <c r="F32" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="G32" s="29"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="4"/>
+      <c r="B33" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D33" s="27"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="5"/>
+    </row>
+    <row r="34" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="G34" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="H34" s="36"/>
+      <c r="I34" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="4"/>
+      <c r="B35" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D35" s="15"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" s="5"/>
+    </row>
+    <row r="36" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="E32" s="11"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="4"/>
-    </row>
-    <row r="33" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="8"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="4"/>
-    </row>
-    <row r="34" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-    </row>
-    <row r="35" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="8"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-    </row>
-    <row r="36" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="8" t="s">
+      <c r="E36" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F36" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="G36" s="35"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-    </row>
-    <row r="37" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="8"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-    </row>
-    <row r="38" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="8" t="s">
+    </row>
+    <row r="37" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="4"/>
+      <c r="B37" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D37" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="I37" s="5"/>
+    </row>
+    <row r="38" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B38" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-    </row>
-    <row r="39" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="8"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-    </row>
-    <row r="40" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="8" t="s">
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G38" s="35"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="4"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="5"/>
+    </row>
+    <row r="40" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-    </row>
-    <row r="41" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="8"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-    </row>
-    <row r="42" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="8" t="s">
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" s="12"/>
+      <c r="I40" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="4"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="5"/>
+    </row>
+    <row r="42" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-    </row>
-    <row r="43" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="8"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-    </row>
-    <row r="44" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="8" t="s">
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H42" s="12"/>
+      <c r="I42" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="4"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="5"/>
+    </row>
+    <row r="44" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-    </row>
-    <row r="45" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="8"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-    </row>
-    <row r="46" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="8" t="s">
+      <c r="B44" s="12"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="4"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="5"/>
+    </row>
+    <row r="46" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-    </row>
-    <row r="47" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="8"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-    </row>
-    <row r="48" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="8" t="s">
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="4"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="5"/>
+    </row>
+    <row r="48" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
-    </row>
-    <row r="49" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="8"/>
-      <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="4"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="13"/>
+      <c r="I49" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="52">
+  <mergeCells count="101">
+    <mergeCell ref="G42:G49"/>
+    <mergeCell ref="D29:D31"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C37:C49"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="G34:G39"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="H10:H13"/>
+    <mergeCell ref="H37:H49"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="H14:H34"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H2:H7"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="G9:G28"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="B37:B49"/>
+    <mergeCell ref="E19:E27"/>
+    <mergeCell ref="F19:F27"/>
+    <mergeCell ref="D32:D35"/>
+    <mergeCell ref="D38:D49"/>
+    <mergeCell ref="E38:E49"/>
+    <mergeCell ref="F38:F49"/>
+    <mergeCell ref="E30:E33"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="B8:B15"/>
+    <mergeCell ref="C8:C15"/>
+    <mergeCell ref="D8:D15"/>
+    <mergeCell ref="E8:E15"/>
+    <mergeCell ref="F8:F15"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
     <mergeCell ref="G30:G33"/>
     <mergeCell ref="A48:A49"/>
     <mergeCell ref="A26:A27"/>
@@ -1298,46 +1680,11 @@
     <mergeCell ref="A42:A43"/>
     <mergeCell ref="A44:A45"/>
     <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="B8:B15"/>
-    <mergeCell ref="C8:C15"/>
-    <mergeCell ref="D8:D15"/>
-    <mergeCell ref="E8:E15"/>
-    <mergeCell ref="F8:F15"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="F16:F18"/>
     <mergeCell ref="B19:B27"/>
     <mergeCell ref="C19:C27"/>
     <mergeCell ref="D19:D27"/>
-    <mergeCell ref="E19:E27"/>
-    <mergeCell ref="F19:F27"/>
-    <mergeCell ref="D32:D35"/>
-    <mergeCell ref="B38:B49"/>
-    <mergeCell ref="C38:C49"/>
-    <mergeCell ref="D38:D49"/>
-    <mergeCell ref="E38:E49"/>
-    <mergeCell ref="F38:F49"/>
-    <mergeCell ref="E30:E33"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" scale="50" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>